--- a/Doc/Hardware/IO信息.xlsx
+++ b/Doc/Hardware/IO信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRDY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -490,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +523,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,7 +1216,7 @@
   <dimension ref="B4:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,10 +1235,10 @@
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1246,10 +1257,10 @@
       <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1259,10 +1270,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1274,10 +1285,10 @@
       <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>4</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1287,10 +1298,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1302,10 +1313,10 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1315,7 +1326,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
@@ -1324,10 +1335,10 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>7</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>8</v>
       </c>
       <c r="H8" s="5">
@@ -1339,7 +1350,7 @@
       <c r="J8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
@@ -1350,10 +1361,10 @@
       <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>9</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>10</v>
       </c>
       <c r="H9" s="5">
@@ -1365,10 +1376,10 @@
       <c r="J9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1380,10 +1391,10 @@
       <c r="E10" s="5">
         <v>17</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>11</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>12</v>
       </c>
       <c r="H10" s="5">
@@ -1395,7 +1406,7 @@
       <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1406,10 +1417,10 @@
       <c r="E11" s="5">
         <v>27</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>13</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1419,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
@@ -1428,10 +1439,10 @@
       <c r="E12" s="5">
         <v>22</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>15</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>16</v>
       </c>
       <c r="H12" s="5">
@@ -1441,7 +1452,7 @@
       <c r="J12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1454,10 +1465,10 @@
       <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>17</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>18</v>
       </c>
       <c r="H13" s="5">
@@ -1467,12 +1478,12 @@
       <c r="J13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1484,10 +1495,10 @@
       <c r="E14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>19</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -1497,7 +1508,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
@@ -1508,10 +1519,10 @@
       <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="F15" s="15">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="F15" s="14">
+        <v>21</v>
+      </c>
+      <c r="G15" s="17">
         <v>22</v>
       </c>
       <c r="H15" s="5">
@@ -1521,12 +1532,12 @@
       <c r="J15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1538,10 +1549,10 @@
       <c r="E16" s="5">
         <v>11</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>23</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>24</v>
       </c>
       <c r="H16" s="5">
@@ -1553,7 +1564,7 @@
       <c r="J16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
@@ -1564,10 +1575,10 @@
       <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>25</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>26</v>
       </c>
       <c r="H17" s="5">
@@ -1579,7 +1590,7 @@
       <c r="J17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
@@ -1590,10 +1601,10 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>27</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>28</v>
       </c>
       <c r="H18" s="5">
@@ -1603,10 +1614,10 @@
         <v>54</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1616,10 +1627,10 @@
       <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>29</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>30</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1629,10 +1640,10 @@
         <v>43</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1642,10 +1653,10 @@
       <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>31</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>32</v>
       </c>
       <c r="H20" s="5">
@@ -1655,12 +1666,12 @@
       <c r="J20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1670,10 +1681,10 @@
       <c r="E21" s="5">
         <v>13</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>33</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>34</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1683,21 +1694,25 @@
         <v>43</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="5">
         <v>19</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>35</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>36</v>
       </c>
       <c r="H22" s="5">
@@ -1709,21 +1724,25 @@
       <c r="J22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5">
         <v>26</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>37</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>38</v>
       </c>
       <c r="H23" s="5">
@@ -1735,7 +1754,7 @@
       <c r="J23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1748,10 +1767,10 @@
       <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>39</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>40</v>
       </c>
       <c r="H24" s="5">
@@ -1763,7 +1782,7 @@
       <c r="J24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Doc/Hardware/IO信息.xlsx
+++ b/Doc/Hardware/IO信息.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="GPIO" sheetId="2" r:id="rId2"/>
+    <sheet name="SPI" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,14 +317,34 @@
   </si>
   <si>
     <t>DRDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLC5615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOL = 0, CPHA = 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,10 +545,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,10 +646,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,7 +680,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,16 +855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="B5:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -868,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -880,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -892,7 +914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -904,7 +926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -916,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -928,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -940,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -952,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -964,7 +986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -976,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -988,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1012,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1024,7 +1046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -1060,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -1108,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="B27" s="2">
         <v>22</v>
       </c>
@@ -1120,7 +1142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="2">
         <v>23</v>
       </c>
@@ -1132,7 +1154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="B29" s="2">
         <v>24</v>
       </c>
@@ -1144,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="2">
         <v>25</v>
       </c>
@@ -1156,7 +1178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="2">
         <v>26</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="2">
         <v>27</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="2">
         <v>28</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="2">
         <v>29</v>
       </c>
@@ -1212,20 +1234,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="16.5" thickBot="1">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -1235,10 +1257,10 @@
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.5">
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
         <v>38</v>
@@ -1272,7 +1294,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="16.5">
       <c r="B6" s="9" t="s">
         <v>76</v>
       </c>
@@ -1300,7 +1322,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="16.5">
       <c r="B7" s="9" t="s">
         <v>77</v>
       </c>
@@ -1328,7 +1350,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="16.5">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
@@ -1352,7 +1374,7 @@
       </c>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="16.5">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4" t="s">
@@ -1378,7 +1400,7 @@
       </c>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="16.5">
       <c r="B10" s="10" t="s">
         <v>78</v>
       </c>
@@ -1410,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="16.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="4"/>
@@ -1432,7 +1454,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="16.5">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
@@ -1456,7 +1478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="16.5">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
@@ -1482,7 +1504,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="16.5">
       <c r="B14" s="9" t="s">
         <v>79</v>
       </c>
@@ -1510,7 +1532,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="16.5">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
@@ -1536,7 +1558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="16.5">
       <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1588,7 @@
       </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="16.5">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
@@ -1592,7 +1614,7 @@
       </c>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="16.5">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4" t="s">
@@ -1616,7 +1638,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="16.5">
       <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1664,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="16.5">
       <c r="B20" s="9" t="s">
         <v>80</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="16.5">
       <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
@@ -1696,8 +1718,8 @@
       <c r="J21" s="6"/>
       <c r="K21" s="11"/>
     </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="2:11" ht="16.5">
+      <c r="B22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1728,8 +1750,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:11" ht="16.5">
+      <c r="B23" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1758,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="17.25" thickBot="1">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="4" t="s">
@@ -1794,4 +1816,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="21">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>